--- a/Partial Components Regression/plot_infos_pcr_sg.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_sg.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7484244397711524</v>
+        <v>0.7484244397710786</v>
       </c>
       <c r="D2" t="n">
-        <v>3.522632873055832</v>
+        <v>3.522632873056858</v>
       </c>
       <c r="E2" t="n">
-        <v>1.332766257947999</v>
+        <v>1.332766257948192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7484244397711515</v>
+        <v>0.7484244397710785</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7389507385214874</v>
+        <v>0.7389507385214085</v>
       </c>
       <c r="D3" t="n">
-        <v>3.660697165498884</v>
+        <v>3.660697165500002</v>
       </c>
       <c r="E3" t="n">
-        <v>1.391741727524498</v>
+        <v>1.391741727524714</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7256671802024675</v>
+        <v>0.7256671802023824</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4635448637118251</v>
+        <v>0.4635448636911388</v>
       </c>
       <c r="D4" t="n">
-        <v>1.760382127916528</v>
+        <v>1.760382127984411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2262934491824286</v>
+        <v>0.2262934491867918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4635448637118252</v>
+        <v>0.4635448636911387</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.436002217671426</v>
+        <v>0.4360022176549992</v>
       </c>
       <c r="D5" t="n">
-        <v>1.849356069257175</v>
+        <v>1.849356069311443</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2410594429641713</v>
+        <v>0.2410594429673466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3912517285220014</v>
+        <v>0.391251728505964</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5772997770821315</v>
+        <v>0.5772997770866438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4741633712006582</v>
+        <v>0.4741633711955966</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3813924577539009</v>
+        <v>0.3813924577518653</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5772997770821313</v>
+        <v>0.5772997770866437</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5488035772330514</v>
+        <v>0.5488035772378166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5033352602119229</v>
+        <v>0.5033352602065378</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4065888849456758</v>
+        <v>0.4065888849434595</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5196041133646374</v>
+        <v>0.5196041133698748</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5354074349808552</v>
+        <v>0.5354074349492267</v>
       </c>
       <c r="D8" t="n">
-        <v>238.3392061450005</v>
+        <v>238.3392061612262</v>
       </c>
       <c r="E8" t="n">
-        <v>70.0502114014421</v>
+        <v>70.05021140382655</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5354074349808553</v>
+        <v>0.5354074349492266</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5107983786302176</v>
+        <v>0.5107983785940841</v>
       </c>
       <c r="D9" t="n">
-        <v>250.4254245481042</v>
+        <v>250.4254245665182</v>
       </c>
       <c r="E9" t="n">
-        <v>74.60607576541469</v>
+        <v>74.60607576872304</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4730107589389639</v>
+        <v>0.4730107588922258</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6701777278136317</v>
+        <v>0.6701777278135673</v>
       </c>
       <c r="D10" t="n">
-        <v>5.06215316832957</v>
+        <v>5.062153168330556</v>
       </c>
       <c r="E10" t="n">
-        <v>1.847195534892265</v>
+        <v>1.84719553489245</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6701777278136321</v>
+        <v>0.6701777278135661</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.657997598066317</v>
+        <v>0.6579975980662301</v>
       </c>
       <c r="D11" t="n">
-        <v>5.258985402391192</v>
+        <v>5.258985402392566</v>
       </c>
       <c r="E11" t="n">
-        <v>1.932623687575767</v>
+        <v>1.932623687576084</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6389653910876961</v>
+        <v>0.6389653910875774</v>
       </c>
     </row>
   </sheetData>

--- a/Partial Components Regression/plot_infos_pcr_sg.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_sg.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7484244397710786</v>
+        <v>0.7484244397710726</v>
       </c>
       <c r="D2" t="n">
-        <v>3.522632873056858</v>
+        <v>3.52263287305694</v>
       </c>
       <c r="E2" t="n">
-        <v>1.332766257948192</v>
+        <v>1.332766257948208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7484244397710785</v>
+        <v>0.7484244397710726</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7389507385214085</v>
+        <v>0.7389507385214021</v>
       </c>
       <c r="D3" t="n">
-        <v>3.660697165500002</v>
+        <v>3.660697165500093</v>
       </c>
       <c r="E3" t="n">
-        <v>1.391741727524714</v>
+        <v>1.391741727524732</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7256671802023824</v>
+        <v>0.7256671802023753</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4635448636911388</v>
+        <v>0.463544863547971</v>
       </c>
       <c r="D4" t="n">
-        <v>1.760382127984411</v>
+        <v>1.760382128454218</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2262934491867918</v>
+        <v>0.2262934492169881</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4635448636911387</v>
+        <v>0.4635448635479709</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4360022176549992</v>
+        <v>0.4360022175024897</v>
       </c>
       <c r="D5" t="n">
-        <v>1.849356069311443</v>
+        <v>1.84935606981256</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2410594429673466</v>
+        <v>0.2410594430005892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.391251728505964</v>
+        <v>0.3912517283380692</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5772997770866438</v>
+        <v>0.5772997770802757</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4741633711955966</v>
+        <v>0.4741633712027403</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3813924577518653</v>
+        <v>0.3813924577547379</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5772997770866437</v>
+        <v>0.577299777080276</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5488035772378166</v>
+        <v>0.5488035772307361</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5033352602065378</v>
+        <v>0.503335260214279</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4065888849434595</v>
+        <v>0.4065888849461675</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5196041133698748</v>
+        <v>0.5196041133634757</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5354074349492267</v>
+        <v>0.5354074349440815</v>
       </c>
       <c r="D8" t="n">
-        <v>238.3392061612262</v>
+        <v>238.3392061638659</v>
       </c>
       <c r="E8" t="n">
-        <v>70.05021140382655</v>
+        <v>70.05021140421445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5354074349492266</v>
+        <v>0.5354074349440814</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5107983785940841</v>
+        <v>0.5107983785875997</v>
       </c>
       <c r="D9" t="n">
-        <v>250.4254245665182</v>
+        <v>250.4254245697775</v>
       </c>
       <c r="E9" t="n">
-        <v>74.60607576872304</v>
+        <v>74.60607576946802</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4730107588922258</v>
+        <v>0.4730107588817013</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6701777278135673</v>
+        <v>0.6701777278163675</v>
       </c>
       <c r="D10" t="n">
-        <v>5.062153168330556</v>
+        <v>5.06215316828758</v>
       </c>
       <c r="E10" t="n">
-        <v>1.84719553489245</v>
+        <v>1.847195534884605</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6701777278135661</v>
+        <v>0.6701777278163674</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6579975980662301</v>
+        <v>0.6579975980689318</v>
       </c>
       <c r="D11" t="n">
-        <v>5.258985402392566</v>
+        <v>5.258985402350601</v>
       </c>
       <c r="E11" t="n">
-        <v>1.932623687576084</v>
+        <v>1.932623687568715</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6389653910875774</v>
+        <v>0.6389653910903306</v>
       </c>
     </row>
   </sheetData>

--- a/Partial Components Regression/plot_infos_pcr_sg.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_sg.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7484244397710726</v>
+        <v>0.7652488218523669</v>
       </c>
       <c r="D2" t="n">
-        <v>3.52263287305694</v>
+        <v>3.287053068188353</v>
       </c>
       <c r="E2" t="n">
-        <v>1.332766257948208</v>
+        <v>1.287430089285444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7484244397710726</v>
+        <v>0.7652488218523665</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7389507385214021</v>
+        <v>0.7521081881793897</v>
       </c>
       <c r="D3" t="n">
-        <v>3.660697165500093</v>
+        <v>3.482316337766491</v>
       </c>
       <c r="E3" t="n">
-        <v>1.391741727524732</v>
+        <v>1.367345623478399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7256671802023753</v>
+        <v>0.7352005490771096</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.463544863547971</v>
+        <v>0.4688054747003463</v>
       </c>
       <c r="D4" t="n">
-        <v>1.760382128454218</v>
+        <v>1.743119387866745</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2262934492169881</v>
+        <v>0.2251811710404823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4635448635479709</v>
+        <v>0.4688054747003464</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4360022175024897</v>
+        <v>0.4383441132901364</v>
       </c>
       <c r="D5" t="n">
-        <v>1.84935606981256</v>
+        <v>1.841827598857237</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2410594430005892</v>
+        <v>0.2412183778558042</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3912517283380692</v>
+        <v>0.3904487462008647</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5772997770802757</v>
+        <v>0.5529044951640609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4741633712027403</v>
+        <v>0.5015287438418512</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3813924577547379</v>
+        <v>0.3922437331892626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.577299777080276</v>
+        <v>0.5529044951640609</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5488035772307361</v>
+        <v>0.5293487356155337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.503335260214279</v>
+        <v>0.5249115170629832</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4065888849461675</v>
+        <v>0.4138859651466079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5196041133634757</v>
+        <v>0.5022059794685393</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5354074349440815</v>
+        <v>0.549793735567308</v>
       </c>
       <c r="D8" t="n">
-        <v>238.3392061638659</v>
+        <v>230.9589342265355</v>
       </c>
       <c r="E8" t="n">
-        <v>70.05021140421445</v>
+        <v>68.95711596322518</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5354074349440814</v>
+        <v>0.5497937355673072</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5107983785875997</v>
+        <v>0.5215083906738172</v>
       </c>
       <c r="D9" t="n">
-        <v>250.4254245697775</v>
+        <v>244.9523546852538</v>
       </c>
       <c r="E9" t="n">
-        <v>74.60607576946802</v>
+        <v>74.60437642749604</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4730107588817013</v>
+        <v>0.4730347656325711</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6701777278163675</v>
+        <v>0.6704659607956678</v>
       </c>
       <c r="D10" t="n">
-        <v>5.06215316828758</v>
+        <v>5.057729332748186</v>
       </c>
       <c r="E10" t="n">
-        <v>1.847195534884605</v>
+        <v>1.846388222750611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6701777278163674</v>
+        <v>0.6704659607956677</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6579975980689318</v>
+        <v>0.6562443076201127</v>
       </c>
       <c r="D11" t="n">
-        <v>5.258985402350601</v>
+        <v>5.286829133673952</v>
       </c>
       <c r="E11" t="n">
-        <v>1.932623687568715</v>
+        <v>1.94719964562402</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6389653910903306</v>
+        <v>0.6334989672791522</v>
       </c>
     </row>
   </sheetData>

--- a/Partial Components Regression/plot_infos_pcr_sg.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_sg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>R²</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Slope</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>R²</t>
         </is>
       </c>
     </row>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7652488218523669</v>
+        <v>0.7652488218511146</v>
       </c>
       <c r="D2" t="n">
-        <v>3.287053068188353</v>
+        <v>1.287430089288877</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287430089285444</v>
+        <v>3.287053068205883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7652488218523665</v>
+        <v>0.7652488218511148</v>
       </c>
     </row>
     <row r="3">
@@ -501,40 +501,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7521081881793897</v>
+        <v>0.7352005490747384</v>
       </c>
       <c r="D3" t="n">
-        <v>3.482316337766491</v>
+        <v>1.367345623484522</v>
       </c>
       <c r="E3" t="n">
-        <v>1.367345623478399</v>
+        <v>3.482316337791213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7352005490771096</v>
+        <v>0.7521081881774457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Referência</t>
+          <t>Validação</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4688054747003463</v>
+        <v>0.7348733649008815</v>
       </c>
       <c r="D4" t="n">
-        <v>1.743119387866745</v>
+        <v>1.08223076245959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2251811710404823</v>
+        <v>1.832791360085006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4688054747003464</v>
+        <v>0.8698628171401067</v>
       </c>
     </row>
     <row r="5">
@@ -545,74 +545,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Predição</t>
+          <t>Referência</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4383441132901364</v>
+        <v>0.4688054746938572</v>
       </c>
       <c r="D5" t="n">
-        <v>1.841827598857237</v>
+        <v>0.2251811710418577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2412183778558042</v>
+        <v>1.743119387888039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3904487462008647</v>
+        <v>0.4688054746938569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Referência</t>
+          <t>Predição</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5529044951640609</v>
+        <v>0.390448746200474</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5015287438418512</v>
+        <v>0.2412183778558815</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3922437331892626</v>
+        <v>1.841827598863998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5529044951640609</v>
+        <v>0.438344113288157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Predição</t>
+          <t>Validação</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5293487356155337</v>
+        <v>0.5551700929815269</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5249115170629832</v>
+        <v>0.174563123106224</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4138859651466079</v>
+        <v>0.5250335691233268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5022059794685393</v>
+        <v>0.8500194321630428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FIRMEZA (N)</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -621,22 +621,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.549793735567308</v>
+        <v>0.5529044951640683</v>
       </c>
       <c r="D8" t="n">
-        <v>230.9589342265355</v>
+        <v>0.3922437331892594</v>
       </c>
       <c r="E8" t="n">
-        <v>68.95711596322518</v>
+        <v>0.5015287438418431</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5497937355673072</v>
+        <v>0.5529044951640681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FIRMEZA (N)</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -645,64 +645,184 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5215083906738172</v>
+        <v>0.5022059794686908</v>
       </c>
       <c r="D9" t="n">
-        <v>244.9523546852538</v>
+        <v>0.4138859651465448</v>
       </c>
       <c r="E9" t="n">
-        <v>74.60437642749604</v>
+        <v>0.5249115170629447</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4730347656325711</v>
+        <v>0.529348735615595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UBS (%)</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Referência</t>
+          <t>Validação</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6704659607956678</v>
+        <v>0.5884635316029205</v>
       </c>
       <c r="D10" t="n">
-        <v>5.057729332748186</v>
+        <v>0.2802708219034881</v>
       </c>
       <c r="E10" t="n">
-        <v>1.846388222750611</v>
+        <v>0.05050495057193216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6704659607956677</v>
+        <v>0.9210674899942144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Referência</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5497937355681533</v>
+      </c>
+      <c r="D11" t="n">
+        <v>68.95711596316038</v>
+      </c>
+      <c r="E11" t="n">
+        <v>230.9589342261019</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5497937355681534</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Predição</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4730347656370216</v>
+      </c>
+      <c r="D12" t="n">
+        <v>74.60437642718099</v>
+      </c>
+      <c r="E12" t="n">
+        <v>244.9523546846835</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5215083906750153</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Validação</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4133020347533339</v>
+      </c>
+      <c r="D13" t="n">
+        <v>59.17165279768364</v>
+      </c>
+      <c r="E13" t="n">
+        <v>102.7664707452828</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7823503012261875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>UBS (%)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Referência</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6704659607954542</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.846388222751209</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.057729332751462</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6704659607954542</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Predição</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.6562443076201127</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.286829133673952</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.94719964562402</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.6334989672791522</v>
+      <c r="C15" t="n">
+        <v>0.6334989672813065</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.947199645618298</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.286829133664152</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6562443076208077</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Validação</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7723798644787406</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.033875521911286</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.705202574476647</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8201895022104482</v>
       </c>
     </row>
   </sheetData>

--- a/Partial Components Regression/plot_infos_pcr_sg.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_sg.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7652488218511146</v>
+        <v>0.765248821852446</v>
       </c>
       <c r="D2" t="n">
-        <v>1.287430089288877</v>
+        <v>1.287430089285227</v>
       </c>
       <c r="E2" t="n">
-        <v>3.287053068205883</v>
+        <v>3.28705306818724</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7652488218511148</v>
+        <v>0.7652488218524465</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7352005490747384</v>
+        <v>0.7352005490764448</v>
       </c>
       <c r="D3" t="n">
-        <v>1.367345623484522</v>
+        <v>1.367345623480116</v>
       </c>
       <c r="E3" t="n">
-        <v>3.482316337791213</v>
+        <v>3.482316337765497</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7521081881774457</v>
+        <v>0.7521081881794205</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7348733649008815</v>
+        <v>0.7348733648983938</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08223076245959</v>
+        <v>1.082230762464667</v>
       </c>
       <c r="E4" t="n">
-        <v>1.832791360085006</v>
+        <v>1.832791360107032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8698628171401067</v>
+        <v>0.8698628171387845</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4688054746938572</v>
+        <v>0.4688054747245273</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2251811710418577</v>
+        <v>0.225181171035357</v>
       </c>
       <c r="E5" t="n">
-        <v>1.743119387888039</v>
+        <v>1.743119387787395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4688054746938569</v>
+        <v>0.468805474724527</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.390448746200474</v>
+        <v>0.390448746236625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2412183778558815</v>
+        <v>0.2412183778487285</v>
       </c>
       <c r="E6" t="n">
-        <v>1.841827598863998</v>
+        <v>1.841827598767997</v>
       </c>
       <c r="F6" t="n">
-        <v>0.438344113288157</v>
+        <v>0.438344113317426</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5551700929815269</v>
+        <v>0.5551700929827152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.174563123106224</v>
+        <v>0.1745631231059909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5250335691233268</v>
+        <v>0.5250335691372525</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8500194321630428</v>
+        <v>0.8500194321585183</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5529044951640683</v>
+        <v>0.5529044951640731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3922437331892594</v>
+        <v>0.3922437331892573</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5015287438418431</v>
+        <v>0.5015287438418374</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5529044951640681</v>
+        <v>0.5529044951640735</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5022059794686908</v>
+        <v>0.5022059794685134</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4138859651465448</v>
+        <v>0.4138859651466186</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5249115170629447</v>
+        <v>0.5249115170629809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.529348735615595</v>
+        <v>0.5293487356155344</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5884635316029205</v>
+        <v>0.588463531603663</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2802708219034881</v>
+        <v>0.2802708219032353</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05050495057193216</v>
+        <v>0.05050495057154913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9210674899942144</v>
+        <v>0.9210674899947117</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5497937355681533</v>
+        <v>0.5497937355665603</v>
       </c>
       <c r="D11" t="n">
-        <v>68.95711596316038</v>
+        <v>68.95711596328238</v>
       </c>
       <c r="E11" t="n">
-        <v>230.9589342261019</v>
+        <v>230.9589342269189</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5497937355681534</v>
+        <v>0.5497937355665604</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4730347656370216</v>
+        <v>0.4730347656356793</v>
       </c>
       <c r="D12" t="n">
-        <v>74.60437642718099</v>
+        <v>74.60437642727602</v>
       </c>
       <c r="E12" t="n">
-        <v>244.9523546846835</v>
+        <v>244.9523546855505</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5215083906750153</v>
+        <v>0.521508390673299</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4133020347533339</v>
+        <v>0.4133020347431164</v>
       </c>
       <c r="D13" t="n">
-        <v>59.17165279768364</v>
+        <v>59.17165279819889</v>
       </c>
       <c r="E13" t="n">
-        <v>102.7664707452828</v>
+        <v>102.7664707500066</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7823503012261875</v>
+        <v>0.7823503012156222</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6704659607954542</v>
+        <v>0.6704659607921418</v>
       </c>
       <c r="D14" t="n">
-        <v>1.846388222751209</v>
+        <v>1.846388222760488</v>
       </c>
       <c r="E14" t="n">
-        <v>5.057729332751462</v>
+        <v>5.057729332802303</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6704659607954542</v>
+        <v>0.670465960792142</v>
       </c>
     </row>
     <row r="15">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6334989672813065</v>
+        <v>0.6334989672946223</v>
       </c>
       <c r="D15" t="n">
-        <v>1.947199645618298</v>
+        <v>1.947199645582925</v>
       </c>
       <c r="E15" t="n">
-        <v>5.286829133664152</v>
+        <v>5.286829133543988</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6562443076208077</v>
+        <v>0.6562443076288331</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7723798644787406</v>
+        <v>0.7723798644746814</v>
       </c>
       <c r="D16" t="n">
-        <v>1.033875521911286</v>
+        <v>1.033875521920504</v>
       </c>
       <c r="E16" t="n">
-        <v>2.705202574476647</v>
+        <v>2.705202574501049</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8201895022104482</v>
+        <v>0.8201895022088099</v>
       </c>
     </row>
   </sheetData>
